--- a/layout_tipo_47.xlsx
+++ b/layout_tipo_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NFE47-NUM-FATURA</t>
+          <t>NFE47-TP-REG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TEXTO</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,14 +492,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NFE47-SIGLA-UF-EMISSAO</t>
+          <t>NFE47-NUM-FATURA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -516,14 +516,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFE47-SIGLA-EMP</t>
+          <t>NFE47-SIGLA-UF-EMISSAO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -540,11 +540,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFE47-SERIE-NF</t>
+          <t>NFE47-SIGLA-EMP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -564,18 +564,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NFE47-NUM-NF</t>
+          <t>NFE47-SERIE-NF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NUMERO</t>
+          <t>TEXTO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,18 +588,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-IBSUF</t>
+          <t>NFE47-NUM-NF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TEXTO</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,14 +612,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-IBSUF</t>
+          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-IBSUF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-IBSMUN</t>
+          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-IBSUF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-IBSMUN</t>
+          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-IBSMUN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -684,14 +684,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-CBS</t>
+          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-IBSMUN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -708,14 +708,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-CBS</t>
+          <t>NFE47-PCT-ALIQ-SEM-MOD-CGOV-CBS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -732,26 +732,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>NFE47-VLR-TRIB-SEM-MOD-CGOV-CBS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>89</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>NFE47-FILLER</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>105</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>436</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TEXTO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
